--- a/venvs/my_excel_fileXGBoost.xlsx
+++ b/venvs/my_excel_fileXGBoost.xlsx
@@ -482,7 +482,7 @@
         <v>0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>748</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>0.4</v>
       </c>
       <c r="H3" t="n">
-        <v>748</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         <v>0.2</v>
       </c>
       <c r="H5" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>0.4</v>
       </c>
       <c r="H6" t="n">
-        <v>748</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7">
@@ -612,7 +612,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>776</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0.4</v>
       </c>
       <c r="H9" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10">
@@ -690,7 +690,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>760</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -820,7 +820,7 @@
         <v>0.4</v>
       </c>
       <c r="H15" t="n">
-        <v>760</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         <v>0.2</v>
       </c>
       <c r="H17" t="n">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +898,7 @@
         <v>0.4</v>
       </c>
       <c r="H18" t="n">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19">
@@ -924,7 +924,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>410</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20">
@@ -1028,7 +1028,7 @@
         <v>0.2</v>
       </c>
       <c r="H23" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24">
@@ -1054,7 +1054,7 @@
         <v>0.4</v>
       </c>
       <c r="H24" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25">
@@ -1106,7 +1106,7 @@
         <v>0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>410</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27">
@@ -1132,7 +1132,7 @@
         <v>0.4</v>
       </c>
       <c r="H27" t="n">
-        <v>410</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28">
@@ -1158,7 +1158,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>437</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
         <v>0.2</v>
       </c>
       <c r="H29" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -1210,7 +1210,7 @@
         <v>0.4</v>
       </c>
       <c r="H30" t="n">
-        <v>813</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -1236,7 +1236,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32">
@@ -1262,7 +1262,7 @@
         <v>0.2</v>
       </c>
       <c r="H32" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -1288,7 +1288,7 @@
         <v>0.4</v>
       </c>
       <c r="H33" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -1314,7 +1314,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35">
@@ -1366,7 +1366,7 @@
         <v>0.4</v>
       </c>
       <c r="H36" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37">
@@ -1392,7 +1392,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38">
@@ -1418,7 +1418,7 @@
         <v>0.2</v>
       </c>
       <c r="H38" t="n">
-        <v>376</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39">
@@ -1444,7 +1444,7 @@
         <v>0.4</v>
       </c>
       <c r="H39" t="n">
-        <v>718</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1470,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>813</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
@@ -1496,7 +1496,7 @@
         <v>0.2</v>
       </c>
       <c r="H41" t="n">
-        <v>376</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42">
@@ -1522,7 +1522,7 @@
         <v>0.4</v>
       </c>
       <c r="H42" t="n">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
@@ -1600,7 +1600,7 @@
         <v>0.4</v>
       </c>
       <c r="H45" t="n">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46">
@@ -1626,7 +1626,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>410</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47">
@@ -1730,7 +1730,7 @@
         <v>0.2</v>
       </c>
       <c r="H50" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="51">
@@ -1756,7 +1756,7 @@
         <v>0.4</v>
       </c>
       <c r="H51" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
@@ -1860,7 +1860,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>437</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56">
@@ -1886,7 +1886,7 @@
         <v>0.2</v>
       </c>
       <c r="H56" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57">
@@ -1912,7 +1912,7 @@
         <v>0.4</v>
       </c>
       <c r="H57" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58">
@@ -1938,7 +1938,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
@@ -1964,7 +1964,7 @@
         <v>0.2</v>
       </c>
       <c r="H59" t="n">
-        <v>748</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60">
@@ -1990,7 +1990,7 @@
         <v>0.4</v>
       </c>
       <c r="H60" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61">
@@ -2016,7 +2016,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62">
@@ -2068,7 +2068,7 @@
         <v>0.4</v>
       </c>
       <c r="H63" t="n">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64">
@@ -2094,7 +2094,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>320.9999999999999</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65">
@@ -2120,7 +2120,7 @@
         <v>0.2</v>
       </c>
       <c r="H65" t="n">
-        <v>813</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="66">
@@ -2146,7 +2146,7 @@
         <v>0.4</v>
       </c>
       <c r="H66" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67">
@@ -2172,7 +2172,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68">
@@ -2224,7 +2224,7 @@
         <v>0.4</v>
       </c>
       <c r="H69" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70">
@@ -2250,7 +2250,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71">
@@ -2276,7 +2276,7 @@
         <v>0.2</v>
       </c>
       <c r="H71" t="n">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72">
@@ -2302,7 +2302,7 @@
         <v>0.4</v>
       </c>
       <c r="H72" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73">
@@ -2328,7 +2328,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>320.9999999999999</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74">
@@ -2380,7 +2380,7 @@
         <v>0.4</v>
       </c>
       <c r="H75" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76">
@@ -2406,7 +2406,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>320.9999999999999</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="77">
@@ -2432,7 +2432,7 @@
         <v>0.2</v>
       </c>
       <c r="H77" t="n">
-        <v>748</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78">
@@ -2458,7 +2458,7 @@
         <v>0.4</v>
       </c>
       <c r="H78" t="n">
-        <v>748</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79">
@@ -2484,7 +2484,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>320.9999999999999</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80">
@@ -2510,7 +2510,7 @@
         <v>0.2</v>
       </c>
       <c r="H80" t="n">
-        <v>410</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81">
@@ -2536,7 +2536,7 @@
         <v>0.4</v>
       </c>
       <c r="H81" t="n">
-        <v>320.9999999999999</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82">
@@ -2562,7 +2562,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>320.9999999999999</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2834,37 +2834,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>748</v>
+        <v>1703</v>
       </c>
       <c r="C2" t="n">
-        <v>748</v>
+        <v>422</v>
       </c>
       <c r="D2" t="n">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E2" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="F2" t="n">
-        <v>748</v>
+        <v>422</v>
       </c>
       <c r="G2" t="n">
-        <v>776</v>
+        <v>422</v>
       </c>
       <c r="H2" t="n">
         <v>423</v>
       </c>
       <c r="I2" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J2" t="n">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="K2" t="n">
         <v>1703</v>
       </c>
       <c r="L2" t="n">
-        <v>760</v>
+        <v>74</v>
       </c>
       <c r="M2" t="n">
         <v>776</v>
@@ -2873,19 +2873,19 @@
         <v>776</v>
       </c>
       <c r="O2" t="n">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="P2" t="n">
         <v>776</v>
       </c>
       <c r="Q2" t="n">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="R2" t="n">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="S2" t="n">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="T2" t="n">
         <v>1703</v>
@@ -2897,64 +2897,64 @@
         <v>1703</v>
       </c>
       <c r="W2" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="X2" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="Y2" t="n">
         <v>776</v>
       </c>
       <c r="Z2" t="n">
-        <v>410</v>
+        <v>776</v>
       </c>
       <c r="AA2" t="n">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="AB2" t="n">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="AC2" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="n">
-        <v>813</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
       <c r="AF2" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
       <c r="AI2" t="n">
         <v>376</v>
       </c>
       <c r="AJ2" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AK2" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AL2" t="n">
-        <v>376</v>
+        <v>1016</v>
       </c>
       <c r="AM2" t="n">
-        <v>718</v>
+        <v>74</v>
       </c>
       <c r="AN2" t="n">
-        <v>813</v>
+        <v>74</v>
       </c>
       <c r="AO2" t="n">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="AP2" t="n">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AQ2" t="n">
         <v>776</v>
@@ -2963,10 +2963,10 @@
         <v>376</v>
       </c>
       <c r="AS2" t="n">
+        <v>423</v>
+      </c>
+      <c r="AT2" t="n">
         <v>376</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>410</v>
       </c>
       <c r="AU2" t="n">
         <v>1703</v>
@@ -2978,10 +2978,10 @@
         <v>1703</v>
       </c>
       <c r="AX2" t="n">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="AY2" t="n">
-        <v>748</v>
+        <v>74</v>
       </c>
       <c r="AZ2" t="n">
         <v>776</v>
@@ -2993,88 +2993,88 @@
         <v>376</v>
       </c>
       <c r="BC2" t="n">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="BD2" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
       <c r="BE2" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
       <c r="BF2" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
       <c r="BG2" t="n">
-        <v>748</v>
+        <v>423</v>
       </c>
       <c r="BH2" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
       <c r="BI2" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
       <c r="BJ2" t="n">
         <v>423</v>
       </c>
       <c r="BK2" t="n">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="BL2" t="n">
-        <v>320.9999999999999</v>
+        <v>422</v>
       </c>
       <c r="BM2" t="n">
-        <v>813</v>
+        <v>1016</v>
       </c>
       <c r="BN2" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
       <c r="BO2" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
       <c r="BP2" t="n">
         <v>423</v>
       </c>
       <c r="BQ2" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
       <c r="BR2" t="n">
-        <v>813</v>
+        <v>422</v>
       </c>
       <c r="BS2" t="n">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="BT2" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
       <c r="BU2" t="n">
-        <v>320.9999999999999</v>
+        <v>321</v>
       </c>
       <c r="BV2" t="n">
         <v>1703</v>
       </c>
       <c r="BW2" t="n">
-        <v>813</v>
+        <v>423</v>
       </c>
       <c r="BX2" t="n">
-        <v>320.9999999999999</v>
+        <v>1703</v>
       </c>
       <c r="BY2" t="n">
-        <v>748</v>
+        <v>423</v>
       </c>
       <c r="BZ2" t="n">
-        <v>748</v>
+        <v>423</v>
       </c>
       <c r="CA2" t="n">
-        <v>320.9999999999999</v>
+        <v>422</v>
       </c>
       <c r="CB2" t="n">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="CC2" t="n">
-        <v>320.9999999999999</v>
+        <v>423</v>
       </c>
       <c r="CD2" t="n">
-        <v>320.9999999999999</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3088,7 +3088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3110,11 +3110,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mean squared error (MSE)</t>
+          <t>mean squared error (MSE) in test data</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01718579190306247</v>
+        <v>187262.4683544304</v>
       </c>
     </row>
     <row r="3">
@@ -3123,11 +3123,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>root Mean Square Error (RMSE)</t>
+          <t>root Mean Square Error (RMSE) test data</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1310945914332947</v>
+        <v>432.7383370518845</v>
       </c>
     </row>
     <row r="4">
@@ -3136,11 +3136,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mean absolute error</t>
+          <t>mean absolute error test data</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0664639388874658</v>
+        <v>285.126582278481</v>
       </c>
     </row>
     <row r="5">
@@ -3149,11 +3149,63 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mean absolute percentage error</t>
+          <t>mean absolute percentage error test data</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.029249139590961</v>
+        <v>0.9090942471878315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mean squared error (MSE) in train data</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>459607.8406593407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>root Mean Square Error (RMSE) in train data</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>677.9438329679979</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mean absolute error in train data</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>370.2472527472527</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mean absolute percentage error in train data</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.57387833000743</v>
       </c>
     </row>
   </sheetData>
